--- a/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_Reporting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071CBA14-C2D0-034E-A020-CE60BF77528B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC67716-1DE1-F74A-8138-79991A8A40D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="116">
   <si>
     <t>table_name</t>
   </si>
@@ -105,9 +105,6 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>calculate_duedate</t>
-  </si>
-  <si>
     <t>reportingperiodenddate</t>
   </si>
   <si>
@@ -129,15 +126,9 @@
     <t>reportduereminderdate</t>
   </si>
   <si>
-    <t>calculate_reminderdate</t>
-  </si>
-  <si>
     <t>reportingperiodstartdate</t>
   </si>
   <si>
-    <t>calculate_startdate</t>
-  </si>
-  <si>
     <t>client_id</t>
   </si>
   <si>
@@ -339,54 +330,55 @@
     <t>annualreport_id</t>
   </si>
   <si>
-    <t>Rcvd Date1
+    <t>get_max_col</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>current_date</t>
+  </si>
+  <si>
+    <t>mapping_file_name</t>
+  </si>
+  <si>
+    <t>entity_name</t>
+  </si>
+  <si>
+    <t>required_entities</t>
+  </si>
+  <si>
+    <t>destination_table_name</t>
+  </si>
+  <si>
+    <t>table_type</t>
+  </si>
+  <si>
+    <t>source_table_name</t>
+  </si>
+  <si>
+    <t>casrec_conditions</t>
+  </si>
+  <si>
+    <t>source_table_additional_columns</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>Rcvd Date
+Rcvd Date1
 Rcvd Date2
 Rcvd Date3
 Rcvd Date4
 Rcvd Date5
 Rcvd Date6</t>
-  </si>
-  <si>
-    <t>get_max_col</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>current_date</t>
-  </si>
-  <si>
-    <t>mapping_file_name</t>
-  </si>
-  <si>
-    <t>entity_name</t>
-  </si>
-  <si>
-    <t>required_entities</t>
-  </si>
-  <si>
-    <t>destination_table_name</t>
-  </si>
-  <si>
-    <t>table_type</t>
-  </si>
-  <si>
-    <t>source_table_name</t>
-  </si>
-  <si>
-    <t>casrec_conditions</t>
-  </si>
-  <si>
-    <t>source_table_additional_columns</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
-    <t>account</t>
   </si>
 </sst>
 </file>
@@ -758,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE371035-1C42-914F-8247-28923EC5B10E}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -766,28 +758,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>111</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>115</v>
       </c>
       <c r="I1" s="21"/>
     </row>
@@ -802,30 +794,30 @@
         <v>17</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -838,9 +830,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1:M1048576"/>
+      <selection pane="bottomLeft" activeCell="P13" sqref="P13:P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -962,17 +954,13 @@
       <c r="E3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="K3" s="6"/>
       <c r="N3" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -983,7 +971,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>23</v>
@@ -998,7 +986,7 @@
         <v>25</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1009,7 +997,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>23</v>
@@ -1021,7 +1009,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1032,7 +1020,7 @@
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>20</v>
@@ -1052,7 +1040,7 @@
         <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>20</v>
@@ -1061,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1072,7 +1060,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>23</v>
@@ -1086,9 +1074,7 @@
       <c r="I8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -1098,7 +1084,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>23</v>
@@ -1112,11 +1098,9 @@
       <c r="I9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="K9" s="6"/>
       <c r="N9" s="19" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1127,7 +1111,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>20</v>
@@ -1136,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1150,10 +1134,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11" s="5" t="b">
         <v>0</v>
@@ -1167,7 +1151,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>23</v>
@@ -1179,13 +1163,13 @@
         <v>24</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1196,7 +1180,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>23</v>
@@ -1213,10 +1197,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="5" t="b">
         <v>0</v>
@@ -1230,10 +1214,10 @@
         <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15" s="5" t="b">
         <v>0</v>
@@ -1247,10 +1231,10 @@
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E16" s="5" t="b">
         <v>0</v>
@@ -1259,16 +1243,14 @@
         <v>24</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1279,14 +1261,15 @@
         <v>18</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E17" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="P17" s="10"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
@@ -1296,14 +1279,15 @@
         <v>18</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E18" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="P18" s="10"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
@@ -1313,14 +1297,15 @@
         <v>18</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E19" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="P19" s="10"/>
     </row>
     <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
@@ -1330,7 +1315,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>23</v>
@@ -1342,8 +1327,9 @@
         <v>24</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>55</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P20" s="10"/>
     </row>
     <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
@@ -1353,7 +1339,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>20</v>
@@ -1362,8 +1348,9 @@
         <v>0</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="P21" s="10"/>
     </row>
     <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
@@ -1373,7 +1360,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>20</v>
@@ -1382,13 +1369,11 @@
         <v>0</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="P22" s="10"/>
       <c r="Q22" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2865,7 +2850,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
@@ -2882,13 +2867,13 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>20</v>
@@ -2897,38 +2882,38 @@
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E4" s="5" t="b">
         <v>0</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>23</v>
@@ -2937,47 +2922,47 @@
         <v>0</v>
       </c>
       <c r="H5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" s="5" t="b">
         <v>0</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>23</v>
@@ -2986,79 +2971,79 @@
         <v>0</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E8" s="5" t="b">
         <v>0</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E9" s="5" t="b">
         <v>0</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>23</v>
@@ -3067,21 +3052,21 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>23</v>
@@ -3090,27 +3075,27 @@
         <v>0</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>20</v>
@@ -3119,13 +3104,13 @@
         <v>0</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4554,16 +4539,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4572,10 +4557,10 @@
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5602,93 +5587,93 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6782,7 +6767,7 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>18</v>
@@ -6799,16 +6784,16 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E3" s="5" t="b">
         <v>0</v>
@@ -6816,16 +6801,16 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5" t="b">
         <v>0</v>
@@ -6833,16 +6818,16 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5" t="b">
         <v>0</v>
@@ -6850,13 +6835,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>20</v>
@@ -6865,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
